--- a/metro/station_line_list/station_list - Copy.xlsx
+++ b/metro/station_line_list/station_list - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhouweifile\Github-Project\VeDa-SG-Public-Transit-System\metro\station_line_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28D6760-AB80-44A0-B8A1-29CCF90EE396}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9FD9BB-1B67-475C-B6E7-C801BE819DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5655" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-01-25" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2023-01-23'!$A$1:$L$221</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1385,7 +1385,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1902,13 +1902,13 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4420,10 +4420,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+      <selection activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,7 +4481,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>285</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>103.744380000015</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>285</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>103.74529</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>285</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>103.74903</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>285</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>103.75364</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>285</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>103.75801</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>285</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>103.76256000006801</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>429</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>103.76256000006801</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>429</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>103.76663000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>429</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>103.77126</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>429</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>103.77264</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>429</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>103.77079999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>429</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>103.76958999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>429</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>103.76451</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>429</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>103.76237999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>429</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>103.76256000006801</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>433</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>103.902369999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>433</v>
       </c>
@@ -4962,7 +4963,7 @@
         <v>103.9049</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>433</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>433</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>103.90664</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>433</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>103.90215999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>433</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>103.90036000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>433</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>103.89859</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>433</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>103.89727000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>433</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>103.902369999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>432</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>103.902369999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>432</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>103.90586</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>432</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>103.90886999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>432</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>103.91262999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>432</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>103.91611</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>432</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>103.91643999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>432</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>103.91267999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>432</v>
       </c>
@@ -5375,7 +5376,7 @@
         <v>103.90855999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>432</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>103.902369999999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>431</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>103.895394999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>431</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>103.90051</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>431</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>103.90597</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>431</v>
       </c>
@@ -5513,7 +5514,7 @@
         <v>103.90545</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>431</v>
       </c>
@@ -5539,7 +5540,7 @@
         <v>103.90219999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>431</v>
       </c>
@@ -5565,7 +5566,7 @@
         <v>103.89742</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>431</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>103.895394999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>430</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>103.895394999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>430</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>103.89381</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>430</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>103.88924</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>430</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>103.88122</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>430</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>103.87563</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>430</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>103.87624</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>430</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>103.88014</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>430</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>103.88578</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>430</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>103.89051000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>430</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>103.895394999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>155</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>103.845823333409</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>103.85057999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>155</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>103.85576</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>103.861064999999</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>155</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>103.86358</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>155</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>103.87542000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>155</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>103.88252</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>155</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>103.88866</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>155</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>103.89256499994799</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>155</v>
       </c>
@@ -6160,7 +6161,7 @@
         <v>103.88988499997799</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>155</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>103.88831999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>155</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>103.87973</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>155</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>103.872915000161</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>155</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>103.86414000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>155</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>103.848374999995</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>155</v>
       </c>
@@ -6322,7 +6323,7 @@
         <v>103.83938000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>155</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>103.83994000000899</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>155</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>155</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>103.815499999941</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>155</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>103.80755000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>155</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>103.7962</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>155</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>103.79029000003101</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>155</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>103.78712</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>155</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>103.78452</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>155</v>
       </c>
@@ -6559,7 +6560,7 @@
         <v>103.78175</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>155</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>103.79155</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>155</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>103.80278</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>155</v>
       </c>
@@ -6637,7 +6638,7 @@
         <v>103.80981</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>155</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>103.82249499999401</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>399</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>103.861064999999</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>399</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>103.859075</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>399</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>103.855193333446</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>209</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>103.76256000006801</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>209</v>
       </c>
@@ -6811,7 +6812,7 @@
         <v>103.76461</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>209</v>
       </c>
@@ -6837,7 +6838,7 @@
         <v>103.76712000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -6857,7 +6858,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>209</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>103.776</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>209</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>103.78357</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>209</v>
       </c>
@@ -6935,7 +6936,7 @@
         <v>103.79721000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>209</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>103.807</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>209</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>103.815499999941</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>209</v>
       </c>
@@ -7019,7 +7020,7 @@
         <v>103.825764999976</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>209</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>103.83827000002201</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>209</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>103.84944499996</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>209</v>
       </c>
@@ -7103,7 +7104,7 @@
         <v>103.85261</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>209</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>103.8563250001</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>209</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>103.861064999999</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>209</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>103.859075</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>209</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>103.85281000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>209</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>103.84849</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>209</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>103.84364999996301</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>209</v>
       </c>
@@ -7297,7 +7298,7 @@
         <v>103.84437</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>209</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>103.84981000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>209</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>103.85543</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>209</v>
       </c>
@@ -7375,7 +7376,7 @@
         <v>103.86262000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>209</v>
       </c>
@@ -7401,7 +7402,7 @@
         <v>103.87184999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>209</v>
       </c>
@@ -7427,7 +7428,7 @@
         <v>103.88293</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>209</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>103.88988499997799</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>209</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>103.89934</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>209</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>103.90818</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>209</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>103.91811</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>209</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>103.93210999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>209</v>
       </c>
@@ -7586,7 +7587,7 @@
         <v>103.93849</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>209</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>103.944080000431</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>209</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>103.95486</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>209</v>
       </c>
@@ -7667,7 +7668,7 @@
         <v>103.9614</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>209</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>103.96191999995</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>0</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>103.94928</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>0</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>103.944080000431</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>0</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>103.95337000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>0</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v>103.94653</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>0</v>
       </c>
@@ -7842,7 +7843,7 @@
         <v>103.93016</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>0</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>103.91294000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>0</v>
       </c>
@@ -7900,7 +7901,7 @@
         <v>103.90291000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>0</v>
       </c>
@@ -7931,7 +7932,7 @@
         <v>103.89256499994799</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>0</v>
       </c>
@@ -7960,7 +7961,7 @@
         <v>103.88289</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>0</v>
       </c>
@@ -7989,7 +7990,7 @@
         <v>103.87135000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>0</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>103.86287</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>0</v>
       </c>
@@ -8049,7 +8050,7 @@
         <v>103.8563250001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>0</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>103.852679999999</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>0</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>103.851495</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>0</v>
       </c>
@@ -8134,13 +8135,13 @@
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="13">
-        <v>1.2747550038337301</v>
+        <v>1.2766200000000001</v>
       </c>
       <c r="K133" s="13">
-        <v>103.84157999689801</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>103.84578</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>0</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>103.83929000008099</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>0</v>
       </c>
@@ -8200,7 +8201,7 @@
         <v>103.82683</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>0</v>
       </c>
@@ -8229,7 +8230,7 @@
         <v>103.81675</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>0</v>
       </c>
@@ -8258,7 +8259,7 @@
         <v>103.806</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>0</v>
       </c>
@@ -8287,7 +8288,7 @@
         <v>103.79827</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>0</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>103.79029000003101</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>0</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>103.77858999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>0</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>103.76522</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>0</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>103.742303333329</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>0</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>103.73256000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>0</v>
       </c>
@@ -8465,7 +8466,7 @@
         <v>103.72069</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>0</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>103.70574000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>0</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>103.69739</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>0</v>
       </c>
@@ -8552,7 +8553,7 @@
         <v>103.67818</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>0</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>103.66065</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>0</v>
       </c>
@@ -8610,7 +8611,7 @@
         <v>103.64895</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>0</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>103.63959</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>0</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>103.6366</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>418</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>103.94653</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>418</v>
       </c>
@@ -8723,7 +8724,7 @@
         <v>103.96191999995</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>418</v>
       </c>
@@ -8749,7 +8750,7 @@
         <v>103.98858</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>124</v>
       </c>
@@ -8780,7 +8781,7 @@
         <v>103.82249499999401</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>124</v>
       </c>
@@ -8803,7 +8804,7 @@
       <c r="J156" s="13"/>
       <c r="K156" s="13"/>
     </row>
-    <row r="157" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>124</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>103.83929000008099</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>124</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>103.84364999996301</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>124</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>103.84661</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>124</v>
       </c>
@@ -8925,7 +8926,7 @@
         <v>103.845823333409</v>
       </c>
     </row>
-    <row r="161" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>124</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>103.84944499996</v>
       </c>
     </row>
-    <row r="162" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>124</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>103.85420999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>124</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>103.86172000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>124</v>
       </c>
@@ -9043,7 +9044,7 @@
         <v>103.86906</v>
       </c>
     </row>
-    <row r="165" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>124</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>103.87071</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>124</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>103.872915000161</v>
       </c>
     </row>
-    <row r="167" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>124</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>103.88500999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>124</v>
       </c>
@@ -9161,7 +9162,7 @@
         <v>103.89257000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>124</v>
       </c>
@@ -9190,7 +9191,7 @@
         <v>103.89302000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>124</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>103.895394999999</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>124</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>103.902369999999</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>71</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>103.742303333329</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>71</v>
       </c>
@@ -9307,7 +9308,7 @@
         <v>103.74954</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>71</v>
       </c>
@@ -9333,7 +9334,7 @@
         <v>103.75182</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>71</v>
       </c>
@@ -9362,7 +9363,7 @@
         <v>103.744380000015</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>71</v>
       </c>
@@ -9388,7 +9389,7 @@
         <v>103.74742999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>71</v>
       </c>
@@ -9408,7 +9409,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>71</v>
       </c>
@@ -9434,7 +9435,7 @@
         <v>103.76201</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>71</v>
       </c>
@@ -9483,13 +9484,13 @@
         <v>443</v>
       </c>
       <c r="J180" s="12">
-        <v>1.43933668223697</v>
+        <v>1.4368639999999999</v>
       </c>
       <c r="K180" s="12">
-        <v>103.781463346968</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+        <v>103.786198</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>71</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>103.80097000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>71</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>103.82002</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>71</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>103.82959</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>71</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>103.83504000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>71</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>103.833</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>71</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>103.84493999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>71</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>103.84951</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>71</v>
       </c>
@@ -9700,7 +9701,7 @@
         <v>103.848374999995</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>71</v>
       </c>
@@ -9726,7 +9727,7 @@
         <v>103.84677000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>71</v>
       </c>
@@ -9752,7 +9753,7 @@
         <v>103.84759</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>71</v>
       </c>
@@ -9778,7 +9779,7 @@
         <v>103.84350999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>71</v>
       </c>
@@ -9807,7 +9808,7 @@
         <v>103.83827000002201</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>71</v>
       </c>
@@ -9836,7 +9837,7 @@
         <v>103.83182499997901</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>71</v>
       </c>
@@ -9862,7 +9863,7 @@
         <v>103.83853000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>71</v>
       </c>
@@ -9891,7 +9892,7 @@
         <v>103.845823333409</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>71</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>103.852679999999</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>71</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>103.851495</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>71</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>103.855193333446</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>71</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>103.86275000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>268</v>
       </c>
@@ -10058,13 +10059,13 @@
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="13">
-        <v>1.43933668223697</v>
+        <v>1.4368639999999999</v>
       </c>
       <c r="K201" s="13">
-        <v>103.781463346968</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>103.786198</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>268</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>103.7938</v>
       </c>
     </row>
-    <row r="203" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>268</v>
       </c>
@@ -10122,7 +10123,7 @@
         <v>103.81805</v>
       </c>
     </row>
-    <row r="204" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>268</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>103.83663</v>
       </c>
     </row>
-    <row r="205" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>268</v>
       </c>
@@ -10173,10 +10174,14 @@
         <v>44436</v>
       </c>
       <c r="I205" s="6"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13"/>
-    </row>
-    <row r="206" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J205" s="13">
+        <v>1.37245999999999</v>
+      </c>
+      <c r="K205" s="13">
+        <v>103.83696</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>268</v>
       </c>
@@ -10205,7 +10210,7 @@
         <v>103.83344</v>
       </c>
     </row>
-    <row r="207" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>268</v>
       </c>
@@ -10234,7 +10239,7 @@
         <v>103.83269</v>
       </c>
     </row>
-    <row r="208" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>268</v>
       </c>
@@ -10265,7 +10270,7 @@
         <v>103.83994000000899</v>
       </c>
     </row>
-    <row r="209" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>268</v>
       </c>
@@ -10290,7 +10295,7 @@
       <c r="J209" s="13"/>
       <c r="K209" s="13"/>
     </row>
-    <row r="210" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>268</v>
       </c>
@@ -10321,7 +10326,7 @@
         <v>103.825764999976</v>
       </c>
     </row>
-    <row r="211" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>268</v>
       </c>
@@ -10350,7 +10355,7 @@
         <v>103.81883000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>268</v>
       </c>
@@ -10379,7 +10384,7 @@
         <v>103.82396</v>
       </c>
     </row>
-    <row r="213" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>268</v>
       </c>
@@ -10410,7 +10415,7 @@
         <v>103.83182499997901</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>268</v>
       </c>
@@ -10439,7 +10444,7 @@
         <v>103.83362</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>268</v>
       </c>
@@ -10468,7 +10473,7 @@
         <v>103.83368</v>
       </c>
     </row>
-    <row r="216" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>268</v>
       </c>
@@ -10499,7 +10504,7 @@
         <v>103.83929000008099</v>
       </c>
     </row>
-    <row r="217" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>268</v>
       </c>
@@ -10528,7 +10533,7 @@
         <v>103.84390999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>268</v>
       </c>
@@ -10557,7 +10562,7 @@
         <v>103.85063</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>268</v>
       </c>
@@ -10588,7 +10593,7 @@
         <v>103.855193333446</v>
       </c>
     </row>
-    <row r="220" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>268</v>
       </c>
@@ -10613,7 +10618,7 @@
       <c r="J220" s="13"/>
       <c r="K220" s="13"/>
     </row>
-    <row r="221" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>268</v>
       </c>
@@ -10644,6 +10649,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L221" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Woodlands"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:L221">
       <sortCondition ref="B2:B221"/>
       <sortCondition ref="A2:A221"/>
